--- a/www/IndicatorsPerCountry/Seychelles_GDPperCapita_TerritorialRef_1976_2012_CCode_690.xlsx
+++ b/www/IndicatorsPerCountry/Seychelles_GDPperCapita_TerritorialRef_1976_2012_CCode_690.xlsx
@@ -240,13 +240,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Seychelles_GDPperCapita_TerritorialRef_1976_2012_CCode_690.xlsx
+++ b/www/IndicatorsPerCountry/Seychelles_GDPperCapita_TerritorialRef_1976_2012_CCode_690.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,181 +36,202 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2050</t>
-  </si>
-  <si>
-    <t>2084</t>
-  </si>
-  <si>
-    <t>2174</t>
-  </si>
-  <si>
-    <t>2164</t>
-  </si>
-  <si>
-    <t>2143</t>
-  </si>
-  <si>
-    <t>2186</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>2254</t>
-  </si>
-  <si>
-    <t>2367</t>
-  </si>
-  <si>
-    <t>2176</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2458</t>
-  </si>
-  <si>
-    <t>2488</t>
-  </si>
-  <si>
-    <t>2435</t>
-  </si>
-  <si>
-    <t>2434</t>
-  </si>
-  <si>
-    <t>2381</t>
-  </si>
-  <si>
-    <t>2522</t>
-  </si>
-  <si>
-    <t>2455</t>
-  </si>
-  <si>
-    <t>2570</t>
-  </si>
-  <si>
-    <t>2910</t>
-  </si>
-  <si>
-    <t>3026</t>
-  </si>
-  <si>
-    <t>3251</t>
-  </si>
-  <si>
-    <t>3245</t>
-  </si>
-  <si>
-    <t>3307</t>
-  </si>
-  <si>
-    <t>3583</t>
-  </si>
-  <si>
-    <t>3787</t>
-  </si>
-  <si>
-    <t>4009</t>
-  </si>
-  <si>
-    <t>4615</t>
-  </si>
-  <si>
-    <t>4444</t>
-  </si>
-  <si>
-    <t>4095</t>
-  </si>
-  <si>
-    <t>3981</t>
-  </si>
-  <si>
-    <t>3879</t>
-  </si>
-  <si>
-    <t>3989</t>
-  </si>
-  <si>
-    <t>4324</t>
-  </si>
-  <si>
-    <t>4372</t>
-  </si>
-  <si>
-    <t>4549</t>
-  </si>
-  <si>
-    <t>4690</t>
-  </si>
-  <si>
-    <t>4899</t>
-  </si>
-  <si>
-    <t>5169.49152542</t>
-  </si>
-  <si>
-    <t>5246.15835532</t>
-  </si>
-  <si>
-    <t>5542.23883808</t>
-  </si>
-  <si>
-    <t>5836.71156837</t>
-  </si>
-  <si>
-    <t>5638.51456167</t>
-  </si>
-  <si>
-    <t>5605.1567442</t>
-  </si>
-  <si>
-    <t>6101.90981853</t>
-  </si>
-  <si>
-    <t>6779.66101695</t>
-  </si>
-  <si>
-    <t>7100.83706948</t>
-  </si>
-  <si>
-    <t>6808.55420607</t>
-  </si>
-  <si>
-    <t>6367.01280982</t>
-  </si>
-  <si>
-    <t>6149.20234992</t>
-  </si>
-  <si>
-    <t>6151.00154083</t>
-  </si>
-  <si>
-    <t>5728.28431791</t>
-  </si>
-  <si>
-    <t>5495.96239605</t>
-  </si>
-  <si>
-    <t>5745.89323606</t>
-  </si>
-  <si>
-    <t>5813.81636359</t>
-  </si>
-  <si>
-    <t>6020.86299036</t>
-  </si>
-  <si>
-    <t>6108.89774236</t>
+    <t>2632</t>
+  </si>
+  <si>
+    <t>2778</t>
+  </si>
+  <si>
+    <t>2821</t>
+  </si>
+  <si>
+    <t>2868</t>
+  </si>
+  <si>
+    <t>2992</t>
+  </si>
+  <si>
+    <t>2979</t>
+  </si>
+  <si>
+    <t>2949</t>
+  </si>
+  <si>
+    <t>3008</t>
+  </si>
+  <si>
+    <t>3027</t>
+  </si>
+  <si>
+    <t>3102</t>
+  </si>
+  <si>
+    <t>3257</t>
+  </si>
+  <si>
+    <t>2995</t>
+  </si>
+  <si>
+    <t>3174</t>
+  </si>
+  <si>
+    <t>3384</t>
+  </si>
+  <si>
+    <t>3424</t>
+  </si>
+  <si>
+    <t>3351</t>
+  </si>
+  <si>
+    <t>3277</t>
+  </si>
+  <si>
+    <t>3470</t>
+  </si>
+  <si>
+    <t>3379</t>
+  </si>
+  <si>
+    <t>3537</t>
+  </si>
+  <si>
+    <t>3987</t>
+  </si>
+  <si>
+    <t>4149</t>
+  </si>
+  <si>
+    <t>4468</t>
+  </si>
+  <si>
+    <t>4457</t>
+  </si>
+  <si>
+    <t>4506</t>
+  </si>
+  <si>
+    <t>5149</t>
+  </si>
+  <si>
+    <t>5491</t>
+  </si>
+  <si>
+    <t>5906</t>
+  </si>
+  <si>
+    <t>6709</t>
+  </si>
+  <si>
+    <t>6424</t>
+  </si>
+  <si>
+    <t>5928</t>
+  </si>
+  <si>
+    <t>5786</t>
+  </si>
+  <si>
+    <t>5638</t>
+  </si>
+  <si>
+    <t>6030</t>
+  </si>
+  <si>
+    <t>6585</t>
+  </si>
+  <si>
+    <t>6601</t>
+  </si>
+  <si>
+    <t>6827</t>
+  </si>
+  <si>
+    <t>7114</t>
+  </si>
+  <si>
+    <t>7755</t>
+  </si>
+  <si>
+    <t>8239</t>
+  </si>
+  <si>
+    <t>8570.67385288007</t>
+  </si>
+  <si>
+    <t>9304.80806777371</t>
+  </si>
+  <si>
+    <t>10009.9140748174</t>
+  </si>
+  <si>
+    <t>10060.8248378732</t>
+  </si>
+  <si>
+    <t>10135.0958230014</t>
+  </si>
+  <si>
+    <t>10468.9905824266</t>
+  </si>
+  <si>
+    <t>12233.0496953541</t>
+  </si>
+  <si>
+    <t>13801.1872520655</t>
+  </si>
+  <si>
+    <t>14235.7867662143</t>
+  </si>
+  <si>
+    <t>14379.8320383995</t>
+  </si>
+  <si>
+    <t>14221.1627064738</t>
+  </si>
+  <si>
+    <t>14581.4113899369</t>
+  </si>
+  <si>
+    <t>13835.9936483827</t>
+  </si>
+  <si>
+    <t>13735.8975558394</t>
+  </si>
+  <si>
+    <t>15172.5631757869</t>
+  </si>
+  <si>
+    <t>16824.6125397852</t>
+  </si>
+  <si>
+    <t>18832.8258637132</t>
+  </si>
+  <si>
+    <t>18687.3909992838</t>
+  </si>
+  <si>
+    <t>18743.9969153866</t>
+  </si>
+  <si>
+    <t>20147.1781530807</t>
+  </si>
+  <si>
+    <t>21545</t>
+  </si>
+  <si>
+    <t>22130</t>
+  </si>
+  <si>
+    <t>23036</t>
+  </si>
+  <si>
+    <t>24250</t>
+  </si>
+  <si>
+    <t>25690</t>
+  </si>
+  <si>
+    <t>26624</t>
   </si>
   <si>
     <t>Description</t>
@@ -600,7 +621,7 @@
         <v>1966.0</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +638,7 @@
         <v>1967.0</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -634,7 +655,7 @@
         <v>1968.0</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -651,7 +672,7 @@
         <v>1969.0</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -668,7 +689,7 @@
         <v>1970.0</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -685,7 +706,7 @@
         <v>1971.0</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -702,7 +723,7 @@
         <v>1972.0</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -719,7 +740,7 @@
         <v>1973.0</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -736,7 +757,7 @@
         <v>1974.0</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -753,7 +774,7 @@
         <v>1975.0</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -770,7 +791,7 @@
         <v>1976.0</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -787,7 +808,7 @@
         <v>1977.0</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30">
@@ -804,7 +825,7 @@
         <v>1978.0</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -821,7 +842,7 @@
         <v>1979.0</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -838,7 +859,7 @@
         <v>1980.0</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
@@ -855,7 +876,7 @@
         <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34">
@@ -872,7 +893,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35">
@@ -889,7 +910,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
@@ -906,7 +927,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
@@ -923,7 +944,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38">
@@ -940,7 +961,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39">
@@ -957,7 +978,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40">
@@ -974,7 +995,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41">
@@ -991,7 +1012,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="42">
@@ -1008,7 +1029,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43">
@@ -1025,7 +1046,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44">
@@ -1042,7 +1063,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45">
@@ -1059,7 +1080,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
@@ -1076,7 +1097,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47">
@@ -1093,7 +1114,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48">
@@ -1110,7 +1131,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49">
@@ -1127,7 +1148,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50">
@@ -1144,7 +1165,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="51">
@@ -1161,7 +1182,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
@@ -1178,7 +1199,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53">
@@ -1195,7 +1216,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54">
@@ -1212,7 +1233,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55">
@@ -1229,7 +1250,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56">
@@ -1246,7 +1267,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57">
@@ -1263,7 +1284,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58">
@@ -1280,7 +1301,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59">
@@ -1297,7 +1318,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60">
@@ -1314,7 +1335,143 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>690.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>690.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>690.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>690.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>690.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>690.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>690.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>690.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1332,50 +1489,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
